--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="281">
   <si>
     <t>SBMLId</t>
   </si>
@@ -266,7 +266,7 @@
     <t>^\w+__GLUT2_GALM$</t>
   </si>
   <si>
-    <t>^\w+__GALK$</t>
+    <t>^\w+__GALK\w{0,1}$</t>
   </si>
   <si>
     <t>SBO:0000176</t>
@@ -320,10 +320,7 @@
     <t>GALK_k_gal</t>
   </si>
   <si>
-    <t>^\w+__GALKM$</t>
-  </si>
-  <si>
-    <t>^\w+__IMP$</t>
+    <t>^\w+__IMP\w{0,1}$</t>
   </si>
   <si>
     <t>3.1.3.25</t>
@@ -332,7 +329,7 @@
     <t>P29218</t>
   </si>
   <si>
-    <t>^\w+__GALT$</t>
+    <t>^\w+__GALT\w{0,2}$</t>
   </si>
   <si>
     <t>2.7.7.12</t>
@@ -344,7 +341,7 @@
     <t>R00955</t>
   </si>
   <si>
-    <t>c__GALE</t>
+    <t>^\w+__GALE$</t>
   </si>
   <si>
     <t>5.1.3.2</t>
@@ -362,7 +359,7 @@
     <t>GALE_kcat</t>
   </si>
   <si>
-    <t>c__UGP</t>
+    <t>^\w+__UGP\w{0,1}$</t>
   </si>
   <si>
     <t>2.7.7.9</t>
@@ -374,7 +371,7 @@
     <t>Q16851</t>
   </si>
   <si>
-    <t>c__UGALP</t>
+    <t>^\w+__UGALP\w{0,1}$</t>
   </si>
   <si>
     <t>2.7.7.10</t>
@@ -383,7 +380,7 @@
     <t>R00502</t>
   </si>
   <si>
-    <t>c__ALDR</t>
+    <t>^\w+__ALDR\w{0,1}$</t>
   </si>
   <si>
     <t>1.1.1.21</t>
@@ -401,7 +398,7 @@
     <t>ALDR_kcat</t>
   </si>
   <si>
-    <t>c__PGM1</t>
+    <t>^\w+__PGM1\w{0,1}$</t>
   </si>
   <si>
     <t>5.4.2.2</t>
@@ -413,7 +410,7 @@
     <t>P36871</t>
   </si>
   <si>
-    <t>c__PPASE</t>
+    <t>^\w+__PPASE$</t>
   </si>
   <si>
     <t>3.6.1.1</t>
@@ -425,7 +422,7 @@
     <t>Q15181</t>
   </si>
   <si>
-    <t>c__NDKU</t>
+    <t>^\w+__NDKU$</t>
   </si>
   <si>
     <t>2.7.4.6</t>
@@ -434,7 +431,7 @@
     <t>R00156</t>
   </si>
   <si>
-    <t>c__NADPR</t>
+    <t>^\w+__NADPR$</t>
   </si>
   <si>
     <t>1.1.1.49</t>
@@ -446,7 +443,7 @@
     <t>P11413</t>
   </si>
   <si>
-    <t>c__ATPS</t>
+    <t>^\w+__ATPS$</t>
   </si>
   <si>
     <t>R00086</t>
@@ -455,6 +452,12 @@
     <t>13068</t>
   </si>
   <si>
+    <t>isVersionOf</t>
+  </si>
+  <si>
+    <t>^\w+__GLY\w{0,1}$</t>
+  </si>
+  <si>
     <t># species</t>
   </si>
   <si>
@@ -546,9 +549,6 @@
   </si>
   <si>
     <t>C00668</t>
-  </si>
-  <si>
-    <t>isVersionOf</t>
   </si>
   <si>
     <t>alpha-D-Glucose 6-phosphate</t>
@@ -1124,15 +1124,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="85:85"/>
+      <selection pane="bottomLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8542510121458"/>
@@ -2381,8 +2381,8 @@
       <c r="C67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>86</v>
+      <c r="D67" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>50</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>50</v>
@@ -2411,177 +2411,177 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="6" t="s">
+    <row r="69" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>13992</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7" t="n">
-        <v>13556</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="7" t="n">
-        <v>230200</v>
-      </c>
-      <c r="E71" s="6" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>230400</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="7" t="n">
-        <v>12694189</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="8" t="s">
+    <row r="76" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E77" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G77" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" s="6" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>71</v>
@@ -2590,18 +2590,18 @@
         <v>10</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>71</v>
@@ -2609,19 +2609,19 @@
       <c r="C80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>107</v>
+      <c r="D80" s="7" t="n">
+        <v>22171</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>71</v>
@@ -2629,19 +2629,19 @@
       <c r="C81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="7" t="n">
-        <v>13992</v>
+      <c r="D81" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>71</v>
@@ -2649,262 +2649,287 @@
       <c r="C82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>108</v>
+      <c r="D82" s="7" t="n">
+        <v>230350</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="7" t="n">
+        <v>19823</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="7" t="n">
+        <v>46260</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="7" t="n">
+        <v>16222</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="7" t="n">
+        <v>46263</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="7" t="n">
+        <v>19892</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="7" t="n">
-        <v>230400</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="6" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="7" t="n">
-        <v>22171</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="6" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="7" t="n">
+        <v>14212</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89" s="6" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="7" t="n">
-        <v>230350</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="7" t="n">
-        <v>19823</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="7" t="n">
-        <v>46260</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="7" t="n">
-        <v>16222</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="7" t="n">
-        <v>46263</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="7" t="n">
-        <v>19892</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
-        <v>115</v>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>71</v>
@@ -2919,456 +2944,468 @@
         <v>50</v>
       </c>
       <c r="F98" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="7" t="n">
+        <v>12792</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" s="6" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" s="6" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="7" t="n">
+        <v>22893</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="7" t="n">
+        <v>22893</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="7" t="n">
+        <v>15695</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="7" t="n">
-        <v>14212</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" s="6" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="7" t="n">
+        <v>23539</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" s="6" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F103" s="6" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" s="6" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="7" t="n">
+        <v>612934</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="7" t="n">
-        <v>12792</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="6" t="s">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="7" t="n">
+        <v>24579</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F107" s="6" t="s">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F108" s="6" t="s">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="7" t="n">
-        <v>22893</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="7" t="n">
-        <v>22893</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="7" t="n">
-        <v>15695</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="6" t="s">
+    <row r="121" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="7" t="n">
-        <v>23539</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F114" s="6" t="s">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="7" t="n">
+        <v>25101</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="7" t="n">
-        <v>612934</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="7" t="n">
-        <v>614921</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="7" t="n">
-        <v>24579</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="7" t="s">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>71</v>
@@ -3383,93 +3420,96 @@
         <v>50</v>
       </c>
       <c r="F125" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="7" t="n">
-        <v>25101</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="6" t="s">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="7" t="n">
+        <v>15844</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="7" t="s">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="B130" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="128" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="7" t="n">
-        <v>15844</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
-        <v>139</v>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>71</v>
@@ -3484,42 +3524,45 @@
         <v>50</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B133" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>50</v>
@@ -3529,8 +3572,8 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>143</v>
+      <c r="A135" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>71</v>
@@ -3539,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>50</v>
@@ -3549,2212 +3592,2201 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="15"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+    <row r="137" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
+      <c r="B138" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="B141" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="E141" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="7" t="s">
+      <c r="G141" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="B143" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="6" t="s">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="155" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D157" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G157" s="8" t="s">
+    </row>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="E160" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F161" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G158" s="0" t="s">
+      <c r="G161" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" s="6" t="s">
+      <c r="E167" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" s="7" t="s">
+    </row>
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D172" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-    </row>
-    <row r="173" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-    </row>
-    <row r="179" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-    </row>
-    <row r="184" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D184" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D187" s="19" t="n">
         <v>-2</v>
       </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-    </row>
-    <row r="185" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-    </row>
-    <row r="191" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>200</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-    </row>
-    <row r="197" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>206</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>209</v>
+      </c>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-    </row>
-    <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D202" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-    </row>
-    <row r="203" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>218</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="D205" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-    </row>
-    <row r="209" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>219</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>209</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-    </row>
-    <row r="214" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D214" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-    </row>
-    <row r="215" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G216" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G217" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>160</v>
+      </c>
+      <c r="D217" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-    </row>
-    <row r="221" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>231</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G222" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-    </row>
-    <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D226" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-    </row>
-    <row r="227" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G228" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="D229" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-    </row>
-    <row r="232" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D232" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F232" s="6"/>
-    </row>
-    <row r="233" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F234" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>160</v>
+      </c>
+      <c r="D235" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
-    </row>
-    <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D238" s="19" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-    </row>
-    <row r="239" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F240" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>254</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G241" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>160</v>
+      </c>
+      <c r="D241" s="19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D244" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-    </row>
-    <row r="245" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F246" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G246" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D247" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F247" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
+        <v>161</v>
+      </c>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D250" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-    </row>
-    <row r="251" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D253" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G253" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D256" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-    </row>
-    <row r="257" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G259" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F260" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D261" s="8" t="s">
-        <v>53</v>
+      <c r="D261" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D262" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="263" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F264" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>50</v>
@@ -5762,10 +5794,80 @@
       <c r="F265" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G265" s="0" t="s">
+      <c r="G265" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="266" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" s="0" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="282">
   <si>
     <t>SBMLId</t>
   </si>
@@ -458,15 +458,27 @@
     <t>^\w+__GLY\w{0,1}$</t>
   </si>
   <si>
+    <t>^\w+__GTFGAL\w{0,1}$</t>
+  </si>
+  <si>
+    <t>^\w+__GTFGLC\w{0,1}$</t>
+  </si>
+  <si>
     <t># species</t>
   </si>
   <si>
-    <t>c__glc</t>
+    <t>^\w+__glc$</t>
   </si>
   <si>
     <t>species</t>
   </si>
   <si>
+    <t>SBO:0000247</t>
+  </si>
+  <si>
+    <t>simple chemical</t>
+  </si>
+  <si>
     <t>CHEBI:4167</t>
   </si>
   <si>
@@ -485,12 +497,6 @@
     <t>D-Glucose</t>
   </si>
   <si>
-    <t>SBO:0000247</t>
-  </si>
-  <si>
-    <t>simple chemical</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -503,7 +509,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>c__gal</t>
+    <t>^\w+__gal\w{0,1}$</t>
   </si>
   <si>
     <t>CHEBI:28061</t>
@@ -518,10 +524,7 @@
     <t>D-Galactose</t>
   </si>
   <si>
-    <t>c__galM</t>
-  </si>
-  <si>
-    <t>c__glc1p</t>
+    <t>^\w+__glc1p$</t>
   </si>
   <si>
     <t>CHEBI:29042</t>
@@ -539,7 +542,7 @@
     <t>C6H13O9P</t>
   </si>
   <si>
-    <t>c__glc6p</t>
+    <t>^\w+__glc6p$</t>
   </si>
   <si>
     <t>CHEBI:58225</t>
@@ -560,7 +563,7 @@
     <t>-2</t>
   </si>
   <si>
-    <t>c__gal1p</t>
+    <t>^\w+__gal1p$</t>
   </si>
   <si>
     <t>CHEBI:58336</t>
@@ -575,7 +578,7 @@
     <t>alpha-D-Galactose 1-phosphate</t>
   </si>
   <si>
-    <t>c__udpglc</t>
+    <t>^\w+__udpglc$</t>
   </si>
   <si>
     <t>CHEBI:58885</t>
@@ -593,7 +596,7 @@
     <t>C15H22N2O17P2</t>
   </si>
   <si>
-    <t>c__udpgal</t>
+    <t>^\w+__udpgal$</t>
   </si>
   <si>
     <t>CHEBI:66914</t>
@@ -608,7 +611,7 @@
     <t>UDP-alpha-D-galactose</t>
   </si>
   <si>
-    <t>c__galtol</t>
+    <t>^\w+__galtol$</t>
   </si>
   <si>
     <t>CHEBI:16813</t>
@@ -626,7 +629,7 @@
     <t>C6H14O6</t>
   </si>
   <si>
-    <t>c__atp</t>
+    <t>^\w+__atp$</t>
   </si>
   <si>
     <t>CHEBI:30616</t>
@@ -647,7 +650,7 @@
     <t>-4</t>
   </si>
   <si>
-    <t>c__adp</t>
+    <t>^\w+__adp$</t>
   </si>
   <si>
     <t>CHEBI:456216</t>
@@ -665,7 +668,7 @@
     <t>C10H12N5O10P2</t>
   </si>
   <si>
-    <t>c__utp</t>
+    <t>^\w+__utp$</t>
   </si>
   <si>
     <t>CHEBI:46398</t>
@@ -683,7 +686,7 @@
     <t>C9H11N2O15P3</t>
   </si>
   <si>
-    <t>c__udp</t>
+    <t>^\w+__udp$</t>
   </si>
   <si>
     <t>CHEBI:58223</t>
@@ -701,7 +704,7 @@
     <t>C9H11N2O12P2</t>
   </si>
   <si>
-    <t>c__phos</t>
+    <t>^\w+__phos$</t>
   </si>
   <si>
     <t>CHEBI:43474</t>
@@ -719,7 +722,7 @@
     <t>HO4P</t>
   </si>
   <si>
-    <t>c__ppi</t>
+    <t>^\w+__ppi$</t>
   </si>
   <si>
     <t>CHEBI:33019</t>
@@ -737,7 +740,7 @@
     <t>HO7P2</t>
   </si>
   <si>
-    <t>c__nadp</t>
+    <t>^\w+__nadp$</t>
   </si>
   <si>
     <t>CHEBI:58349</t>
@@ -755,7 +758,7 @@
     <t>C21H25N7O17P3</t>
   </si>
   <si>
-    <t>c__nadph</t>
+    <t>^\w+__nadph$</t>
   </si>
   <si>
     <t>CHEBI:57783</t>
@@ -773,7 +776,7 @@
     <t>C21H26N7O17P3</t>
   </si>
   <si>
-    <t>c__suc</t>
+    <t>^\w+__suc$</t>
   </si>
   <si>
     <t>CHEBI:17992</t>
@@ -791,7 +794,7 @@
     <t>C12H22O11</t>
   </si>
   <si>
-    <t>c__h2o</t>
+    <t>^\w+__h2o$</t>
   </si>
   <si>
     <t>CHEBI:15377</t>
@@ -806,7 +809,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>c__hydron</t>
+    <t>^\w+__hydron$</t>
   </si>
   <si>
     <t>CHEBI:15378</t>
@@ -827,7 +830,13 @@
     <t>+1</t>
   </si>
   <si>
-    <t>c__rbcM</t>
+    <t>^\w+__rbcM$</t>
+  </si>
+  <si>
+    <t>SBO:0000406</t>
+  </si>
+  <si>
+    <t>observable</t>
   </si>
   <si>
     <t>BTO:0000424</t>
@@ -839,25 +848,19 @@
     <t>FMA:62845</t>
   </si>
   <si>
-    <t>SBO:0000406</t>
-  </si>
-  <si>
-    <t>observable</t>
-  </si>
-  <si>
     <t>c__alb</t>
   </si>
   <si>
+    <t>SBO:0000252</t>
+  </si>
+  <si>
+    <t>polypeptide chain</t>
+  </si>
+  <si>
     <t>P02768</t>
   </si>
   <si>
     <t>serum albumin</t>
-  </si>
-  <si>
-    <t>SBO:0000252</t>
-  </si>
-  <si>
-    <t>polypeptide chain</t>
   </si>
 </sst>
 </file>
@@ -1124,12 +1127,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+      <selection pane="bottomLeft" activeCell="A268" activeCellId="0" sqref="268:268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3634,2067 +3637,2038 @@
       </c>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+    <row r="140" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D140" s="5"/>
-    </row>
-    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="B141" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="B143" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>157</v>
+      <c r="G143" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>159</v>
-      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="6" t="s">
+    <row r="145" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D149" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="s">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="s">
+    <row r="151" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C157" s="6" t="s">
+    <row r="157" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D157" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="7" t="s">
+      <c r="D161" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F161" s="6" t="s">
+      <c r="B162" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G161" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F162" s="6"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-    </row>
-    <row r="164" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="s">
-        <v>174</v>
+      <c r="G164" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="B166" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-    </row>
-    <row r="170" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
-        <v>181</v>
+      <c r="A171" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="B172" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
+    <row r="175" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-    </row>
-    <row r="176" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C181" s="6" t="s">
+    <row r="181" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D181" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-    </row>
-    <row r="182" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6" t="s">
+      <c r="D185" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D183" s="7" t="s">
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E183" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="B186" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>191</v>
+        <v>162</v>
+      </c>
+      <c r="D186" s="19" t="n">
+        <v>-2</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C187" s="6" t="s">
+    <row r="187" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D187" s="19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-    </row>
-    <row r="188" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="7" t="s">
+      <c r="D191" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E189" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="B192" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>202</v>
+        <v>162</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C193" s="6" t="s">
+    <row r="193" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D193" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-    </row>
-    <row r="194" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="7" t="s">
+      <c r="D197" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="B198" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C199" s="6" t="s">
+    <row r="199" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D199" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-    </row>
-    <row r="200" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="7" t="s">
+      <c r="D203" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E201" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G201" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G203" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="B204" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>215</v>
+        <v>162</v>
+      </c>
+      <c r="D204" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
     </row>
-    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6" t="s">
+    <row r="205" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D205" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-    </row>
-    <row r="206" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G209" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C211" s="6" t="s">
+    <row r="211" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D211" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-    </row>
-    <row r="212" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="D215" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E213" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G213" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G214" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="B216" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>227</v>
+        <v>162</v>
+      </c>
+      <c r="D216" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C217" s="6" t="s">
+    <row r="217" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D217" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-    </row>
-    <row r="218" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" s="7" t="s">
+      <c r="D221" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E219" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G220" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="B222" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>233</v>
+        <v>162</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C223" s="6" t="s">
+    <row r="223" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D223" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
-    </row>
-    <row r="224" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="7" t="s">
+      <c r="D227" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E225" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G227" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="B228" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>239</v>
+        <v>162</v>
+      </c>
+      <c r="D228" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C229" s="6" t="s">
+    <row r="229" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D229" s="19" t="n">
+      <c r="D233" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D234" s="19" t="n">
         <v>-3</v>
       </c>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-    </row>
-    <row r="230" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G232" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F233" s="6" t="s">
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F236" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G233" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C234" s="6" t="s">
+      <c r="G236" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F238" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D234" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
-    </row>
-    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C235" s="6" t="s">
+      <c r="G238" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D235" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F235" s="6"/>
-    </row>
-    <row r="236" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="7" t="s">
+      <c r="D239" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E237" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F237" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G239" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="B240" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>251</v>
+        <v>162</v>
+      </c>
+      <c r="D240" s="19" t="n">
+        <v>-4</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C241" s="6" t="s">
+    <row r="241" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D241" s="19" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-    </row>
-    <row r="242" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" s="7" t="s">
+      <c r="D245" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E243" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G243" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F244" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G244" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F245" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G245" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="B246" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>257</v>
+        <v>162</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C247" s="6" t="s">
+    <row r="247" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D247" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-    </row>
-    <row r="248" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="7" t="s">
+      <c r="D251" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E249" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="B252" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>262</v>
+        <v>162</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C253" s="6" t="s">
+    <row r="253" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D253" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-    </row>
-    <row r="254" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="7" t="s">
+      <c r="D257" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E255" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G255" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="B258" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>268</v>
+        <v>162</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
-    </row>
-    <row r="260" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6" t="s">
-        <v>270</v>
+      <c r="A261" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>50</v>
@@ -5703,21 +5677,21 @@
         <v>19</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6" t="s">
-        <v>270</v>
+      <c r="A262" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>50</v>
@@ -5726,15 +5700,15 @@
         <v>24</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6" t="s">
-        <v>270</v>
+      <c r="A263" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>10</v>
@@ -5753,11 +5727,11 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6" t="s">
-        <v>270</v>
+      <c r="A264" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>10</v>
@@ -5775,42 +5749,42 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F265" s="6" t="s">
+    <row r="265" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F266" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G265" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="266" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G266" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E267" s="0" t="s">
         <v>50</v>
@@ -5819,55 +5793,10 @@
         <v>76</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E268" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F268" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G268" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="268" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="737" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -1130,9 +1130,9 @@
   <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A268" activeCellId="0" sqref="268:268"/>
+      <selection pane="bottomLeft" activeCell="D215" activeCellId="0" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4684,7 +4684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
         <v>211</v>
       </c>

--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="801" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="289">
   <si>
     <t>SBMLId</t>
   </si>
@@ -386,6 +386,12 @@
     <t>1.1.1.21</t>
   </si>
   <si>
+    <t>37967</t>
+  </si>
+  <si>
+    <t>isVersionOf</t>
+  </si>
+  <si>
     <t>R01095</t>
   </si>
   <si>
@@ -452,9 +458,6 @@
     <t>13068</t>
   </si>
   <si>
-    <t>isVersionOf</t>
-  </si>
-  <si>
     <t>^\w+__GLY\w{0,1}$</t>
   </si>
   <si>
@@ -828,6 +831,24 @@
   </si>
   <si>
     <t>+1</t>
+  </si>
+  <si>
+    <t>^\w+__h2$</t>
+  </si>
+  <si>
+    <t>CHEBI:18276</t>
+  </si>
+  <si>
+    <t>dihydrogen</t>
+  </si>
+  <si>
+    <t>C00282</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>H2 </t>
   </si>
   <si>
     <t>^\w+__rbcM$</t>
@@ -1127,12 +1148,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D215" activeCellId="0" sqref="D215"/>
+      <selection pane="bottomLeft" activeCell="G262" activeCellId="0" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3004,11 +3025,11 @@
       <c r="C102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="7" t="n">
-        <v>12792</v>
+      <c r="D102" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>91</v>
@@ -3025,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>90</v>
@@ -3045,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>76</v>
@@ -3056,7 +3077,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>96</v>
@@ -3076,7 +3097,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>96</v>
@@ -3096,7 +3117,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>96</v>
@@ -3117,7 +3138,7 @@
     <row r="108" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="109" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>71</v>
@@ -3140,7 +3161,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>71</v>
@@ -3149,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>50</v>
@@ -3160,7 +3181,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>71</v>
@@ -3180,7 +3201,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>71</v>
@@ -3189,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>50</v>
@@ -3200,7 +3221,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>71</v>
@@ -3209,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>50</v>
@@ -3220,7 +3241,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>71</v>
@@ -3241,7 +3262,7 @@
     <row r="115" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>71</v>
@@ -3264,7 +3285,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>71</v>
@@ -3273,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>50</v>
@@ -3284,7 +3305,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>71</v>
@@ -3304,7 +3325,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>71</v>
@@ -3313,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>50</v>
@@ -3324,7 +3345,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>71</v>
@@ -3333,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>50</v>
@@ -3345,7 +3366,7 @@
     <row r="121" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="122" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>71</v>
@@ -3368,7 +3389,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>71</v>
@@ -3377,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>50</v>
@@ -3388,7 +3409,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>71</v>
@@ -3408,7 +3429,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>71</v>
@@ -3417,7 +3438,7 @@
         <v>10</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>50</v>
@@ -3429,7 +3450,7 @@
     <row r="126" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>71</v>
@@ -3452,7 +3473,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>71</v>
@@ -3461,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>50</v>
@@ -3472,7 +3493,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>71</v>
@@ -3492,7 +3513,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>71</v>
@@ -3501,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>50</v>
@@ -3512,7 +3533,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>71</v>
@@ -3521,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>50</v>
@@ -3533,7 +3554,7 @@
     <row r="132" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="133" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>71</v>
@@ -3556,7 +3577,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>71</v>
@@ -3565,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>50</v>
@@ -3576,7 +3597,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>71</v>
@@ -3585,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>50</v>
@@ -3600,14 +3621,14 @@
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
       <c r="E136" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F136" s="6"/>
     </row>
     <row r="137" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>71</v>
@@ -3633,14 +3654,14 @@
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
       <c r="E139" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F139" s="6"/>
     </row>
     <row r="140" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="141" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>71</v>
@@ -3664,7 +3685,7 @@
     <row r="142" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="143" s="14" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>71</v>
@@ -3694,22 +3715,22 @@
     </row>
     <row r="145" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>50</v>
@@ -3718,83 +3739,83 @@
         <v>13</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -3802,16 +3823,16 @@
     <row r="151" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>50</v>
@@ -3820,83 +3841,83 @@
         <v>13</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -3904,16 +3925,16 @@
     <row r="157" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>50</v>
@@ -3922,82 +3943,82 @@
         <v>13</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -4005,16 +4026,16 @@
     <row r="163" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>50</v>
@@ -4023,83 +4044,83 @@
         <v>13</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -4107,16 +4128,16 @@
     <row r="169" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>50</v>
@@ -4125,83 +4146,83 @@
         <v>13</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -4209,16 +4230,16 @@
     <row r="175" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>50</v>
@@ -4227,83 +4248,83 @@
         <v>13</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -4311,16 +4332,16 @@
     <row r="181" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>50</v>
@@ -4329,80 +4350,80 @@
         <v>13</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D186" s="19" t="n">
         <v>-2</v>
@@ -4413,16 +4434,16 @@
     <row r="187" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>50</v>
@@ -4431,83 +4452,83 @@
         <v>13</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -4515,16 +4536,16 @@
     <row r="193" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>50</v>
@@ -4533,83 +4554,83 @@
         <v>13</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -4617,16 +4638,16 @@
     <row r="199" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>50</v>
@@ -4635,80 +4656,80 @@
         <v>13</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D204" s="19" t="n">
         <v>-3</v>
@@ -4719,16 +4740,16 @@
     <row r="205" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>50</v>
@@ -4737,83 +4758,83 @@
         <v>13</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -4821,16 +4842,16 @@
     <row r="211" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>50</v>
@@ -4839,80 +4860,80 @@
         <v>13</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D216" s="19" t="n">
         <v>-3</v>
@@ -4923,16 +4944,16 @@
     <row r="217" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>50</v>
@@ -4941,83 +4962,83 @@
         <v>13</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -5025,16 +5046,16 @@
     <row r="223" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>50</v>
@@ -5043,80 +5064,80 @@
         <v>13</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D228" s="19" t="n">
         <v>-3</v>
@@ -5127,16 +5148,16 @@
     <row r="229" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>50</v>
@@ -5145,80 +5166,80 @@
         <v>13</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D234" s="19" t="n">
         <v>-3</v>
@@ -5228,16 +5249,16 @@
     <row r="235" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>50</v>
@@ -5246,80 +5267,80 @@
         <v>13</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D240" s="19" t="n">
         <v>-4</v>
@@ -5330,16 +5351,16 @@
     <row r="241" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>50</v>
@@ -5348,83 +5369,83 @@
         <v>13</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -5432,16 +5453,16 @@
     <row r="247" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>50</v>
@@ -5450,83 +5471,83 @@
         <v>13</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -5534,16 +5555,16 @@
     <row r="253" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>50</v>
@@ -5552,83 +5573,83 @@
         <v>13</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -5636,16 +5657,16 @@
     <row r="259" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>50</v>
@@ -5653,115 +5674,101 @@
       <c r="F260" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G260" s="8" t="s">
+      <c r="G260" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="7" t="s">
+      <c r="E261" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G261" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F261" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D262" s="8" t="s">
+      <c r="D262" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G262" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G262" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6" t="s">
-        <v>277</v>
+    <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>50</v>
@@ -5769,34 +5776,150 @@
       <c r="F266" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G266" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6" t="s">
-        <v>277</v>
+      <c r="G266" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D267" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F267" s="0" t="s">
+      <c r="D267" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G270" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="271" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F273" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="G267" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="268" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G273" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="274" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="801" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="689" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="324">
   <si>
     <t>SBMLId</t>
   </si>
@@ -224,6 +224,48 @@
     <t>FMA:70022</t>
   </si>
   <si>
+    <t># parameters</t>
+  </si>
+  <si>
+    <t>^\w+_kcat$</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>SBO:0000025</t>
+  </si>
+  <si>
+    <t>catalytic rate constant</t>
+  </si>
+  <si>
+    <t>^\w+_k_\w+$</t>
+  </si>
+  <si>
+    <t>SBO:0000027</t>
+  </si>
+  <si>
+    <t>Michaelis constant</t>
+  </si>
+  <si>
+    <t>^\w+_keq$</t>
+  </si>
+  <si>
+    <t>SBO:0000281</t>
+  </si>
+  <si>
+    <t>equilibrium constant</t>
+  </si>
+  <si>
+    <t>^\w+_ki_\w+$</t>
+  </si>
+  <si>
+    <t>SBO:0000261</t>
+  </si>
+  <si>
+    <t>inhibitory constant</t>
+  </si>
+  <si>
     <t># reactions</t>
   </si>
   <si>
@@ -303,9 +345,6 @@
   </si>
   <si>
     <t>GALK_kcat</t>
-  </si>
-  <si>
-    <t>parameter</t>
   </si>
   <si>
     <t>sabiork.kineticrecord</t>
@@ -937,6 +976,30 @@
   <si>
     <t>serum albumin</t>
   </si>
+  <si>
+    <t># rules</t>
+  </si>
+  <si>
+    <t>^\w+__nadp_bal$</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>SBO:0000362</t>
+  </si>
+  <si>
+    <t>concentration conservation law</t>
+  </si>
+  <si>
+    <t>^\w+__adp_bal$</t>
+  </si>
+  <si>
+    <t>^\w+__udp_bal$</t>
+  </si>
+  <si>
+    <t>^\w+__phos_bal$</t>
+  </si>
 </sst>
 </file>
 
@@ -946,7 +1009,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -983,6 +1046,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1058,7 +1127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,6 +1176,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1127,7 +1204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1212,12 +1289,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D252" activeCellId="0" sqref="D252"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1914,17 +1991,17 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+    <row r="37" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1933,14 +2010,36 @@
       <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+    <row r="38" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>74</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>71</v>
@@ -1948,8 +2047,8 @@
       <c r="C39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>72</v>
+      <c r="D39" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>50</v>
@@ -1957,69 +2056,58 @@
       <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>74</v>
+      <c r="G39" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>75</v>
+      <c r="C40" s="7"/>
+      <c r="D40" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -2028,125 +2116,109 @@
         <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="8" t="n">
-        <v>227810</v>
+      <c r="D45" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>84</v>
+      <c r="D47" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="G49" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>10</v>
@@ -2160,190 +2232,192 @@
       <c r="F50" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="8" t="n">
-        <v>13556</v>
+        <v>227810</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="8" t="n">
-        <v>230200</v>
+      <c r="D54" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="8" t="n">
-        <v>12694189</v>
+      <c r="D55" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="8" t="n">
-        <v>14785</v>
+        <v>13556</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="B58" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="8" t="n">
-        <v>12694189</v>
+      <c r="D58" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="8" t="n">
-        <v>14792</v>
+      <c r="D59" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="8" t="n">
-        <v>12694189</v>
+        <v>230200</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>94</v>
@@ -2351,88 +2425,95 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="8" t="n">
-        <v>14785</v>
+        <v>12694189</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v>12694189</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>45367</v>
+        <v>14785</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>15024738</v>
+        <v>12694189</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <v>14792</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>71</v>
@@ -2440,22 +2521,19 @@
       <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>84</v>
+      <c r="D66" s="8" t="n">
+        <v>12694189</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>71</v>
@@ -2463,19 +2541,19 @@
       <c r="C67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>102</v>
+      <c r="D67" s="8" t="n">
+        <v>14785</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>71</v>
@@ -2483,112 +2561,112 @@
       <c r="C68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>103</v>
+      <c r="D68" s="8" t="n">
+        <v>12694189</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <v>45367</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="15" t="s">
+      <c r="C70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>15024738</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>76</v>
+      <c r="G72" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="8" t="n">
-        <v>13992</v>
+      <c r="D73" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>50</v>
@@ -2597,257 +2675,257 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="8" t="n">
-        <v>230400</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>110</v>
+      <c r="D79" s="8" t="n">
+        <v>13992</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="8" t="n">
-        <v>22171</v>
+      <c r="D80" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>111</v>
+      <c r="D81" s="8" t="n">
+        <v>230400</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="8" t="n">
-        <v>230350</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="8" t="n">
-        <v>19823</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="8" t="n">
-        <v>46260</v>
+      <c r="D84" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="8" t="n">
-        <v>16222</v>
+      <c r="D85" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="8" t="n">
-        <v>46263</v>
+        <v>22171</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>230350</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>71</v>
@@ -2855,19 +2933,19 @@
       <c r="C89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>115</v>
+      <c r="D89" s="8" t="n">
+        <v>19823</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>71</v>
@@ -2876,18 +2954,18 @@
         <v>10</v>
       </c>
       <c r="D90" s="8" t="n">
-        <v>19892</v>
+        <v>46260</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>71</v>
@@ -2895,19 +2973,19 @@
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>116</v>
+      <c r="D91" s="8" t="n">
+        <v>16222</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>71</v>
@@ -2915,331 +2993,331 @@
       <c r="C92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>117</v>
+      <c r="D92" s="8" t="n">
+        <v>46263</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>85</v>
+      <c r="G94" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="8" t="n">
-        <v>14212</v>
+        <v>19892</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="14" t="s">
-        <v>85</v>
+      <c r="G100" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>123</v>
+      <c r="D102" s="8" t="n">
+        <v>14212</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="8" t="n">
-        <v>22893</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="8" t="n">
-        <v>22893</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="8" t="n">
-        <v>15695</v>
+      <c r="D107" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>85</v>
+        <v>134</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>71</v>
@@ -3248,18 +3326,18 @@
         <v>10</v>
       </c>
       <c r="D111" s="8" t="n">
-        <v>23539</v>
+        <v>22893</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>71</v>
@@ -3267,19 +3345,19 @@
       <c r="C112" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>131</v>
+      <c r="D112" s="8" t="n">
+        <v>22893</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>71</v>
@@ -3287,112 +3365,112 @@
       <c r="C113" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>132</v>
+      <c r="D113" s="8" t="n">
+        <v>15695</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="8" t="n">
-        <v>612934</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>85</v>
+        <v>142</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>134</v>
+      <c r="D117" s="8" t="n">
+        <v>23539</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="8" t="n">
-        <v>24579</v>
+      <c r="D118" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>50</v>
@@ -3403,494 +3481,496 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>136</v>
+      <c r="D120" s="8" t="n">
+        <v>612934</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G122" s="14" t="s">
-        <v>85</v>
+      <c r="G122" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="8" t="n">
-        <v>25101</v>
+        <v>24579</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="126" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F127" s="15" t="s">
+    <row r="127" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G127" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>87</v>
+      <c r="G128" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="8" t="n">
-        <v>15844</v>
+      <c r="D129" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>142</v>
+      <c r="D130" s="8" t="n">
+        <v>25101</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F133" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G133" s="14" t="s">
-        <v>85</v>
+      <c r="G133" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>146</v>
+      <c r="D135" s="8" t="n">
+        <v>15844</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="8"/>
+      <c r="A136" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="E136" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G138" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F144" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G141" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="142" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" s="14" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" s="15" t="s">
+      <c r="G144" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G143" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F146" s="7" t="s">
+      <c r="G147" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F149" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="G149" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="6"/>
+    </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>50</v>
@@ -3899,83 +3979,83 @@
         <v>13</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -3983,16 +4063,16 @@
     <row r="157" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>50</v>
@@ -4001,82 +4081,83 @@
         <v>13</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D161" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>175</v>
       </c>
+      <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -4084,16 +4165,16 @@
     <row r="163" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>50</v>
@@ -4102,83 +4183,82 @@
         <v>13</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="F167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -4186,16 +4266,16 @@
     <row r="169" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>50</v>
@@ -4204,83 +4284,83 @@
         <v>13</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -4288,16 +4368,16 @@
     <row r="175" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>50</v>
@@ -4306,83 +4386,83 @@
         <v>13</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -4390,16 +4470,16 @@
     <row r="181" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>50</v>
@@ -4408,83 +4488,83 @@
         <v>13</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D186" s="18" t="n">
-        <v>-2</v>
+        <v>176</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -4492,16 +4572,16 @@
     <row r="187" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>50</v>
@@ -4510,83 +4590,83 @@
         <v>13</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="D192" s="20" t="n">
+        <v>-2</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -4594,16 +4674,16 @@
     <row r="193" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>50</v>
@@ -4612,83 +4692,83 @@
         <v>13</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -4696,16 +4776,16 @@
     <row r="199" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>50</v>
@@ -4714,83 +4794,83 @@
         <v>13</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D204" s="18" t="n">
-        <v>-3</v>
+        <v>176</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
@@ -4798,16 +4878,16 @@
     <row r="205" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>50</v>
@@ -4816,83 +4896,83 @@
         <v>13</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>210</v>
+        <v>176</v>
+      </c>
+      <c r="D210" s="20" t="n">
+        <v>-3</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -4900,16 +4980,16 @@
     <row r="211" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>50</v>
@@ -4918,83 +4998,83 @@
         <v>13</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D216" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D216" s="18" t="n">
-        <v>-3</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
@@ -5002,16 +5082,16 @@
     <row r="217" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>50</v>
@@ -5020,83 +5100,83 @@
         <v>13</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D222" s="8" t="s">
         <v>176</v>
+      </c>
+      <c r="D222" s="20" t="n">
+        <v>-3</v>
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -5104,16 +5184,16 @@
     <row r="223" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>50</v>
@@ -5122,83 +5202,83 @@
         <v>13</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D228" s="18" t="n">
-        <v>-3</v>
+        <v>176</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
@@ -5206,16 +5286,16 @@
     <row r="229" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>50</v>
@@ -5224,99 +5304,100 @@
         <v>13</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D234" s="18" t="n">
+        <v>176</v>
+      </c>
+      <c r="D234" s="20" t="n">
         <v>-3</v>
       </c>
+      <c r="E234" s="7"/>
       <c r="F234" s="7"/>
     </row>
     <row r="235" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>50</v>
@@ -5325,100 +5406,99 @@
         <v>13</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D240" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E240" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="D240" s="20" t="n">
+        <v>-3</v>
+      </c>
       <c r="F240" s="7"/>
     </row>
     <row r="241" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>50</v>
@@ -5427,251 +5507,251 @@
         <v>13</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D244" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-    </row>
-    <row r="245" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+    </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E246" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D247" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-    </row>
+        <v>176</v>
+      </c>
+      <c r="D246" s="20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+    </row>
+    <row r="247" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D248" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-    </row>
-    <row r="249" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+    </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E250" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-    </row>
+        <v>176</v>
+      </c>
+      <c r="D250" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D252" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-    </row>
-    <row r="253" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>10</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+    </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G255" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
+        <v>176</v>
+      </c>
+      <c r="D254" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D256" s="8" t="s">
-        <v>261</v>
+      <c r="D256" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G256" s="9" t="s">
-        <v>262</v>
+        <v>13</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="D258" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
@@ -5679,16 +5759,16 @@
     <row r="259" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>50</v>
@@ -5697,83 +5777,83 @@
         <v>13</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
@@ -5781,16 +5861,16 @@
     <row r="265" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>50</v>
@@ -5799,83 +5879,83 @@
         <v>13</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
@@ -5883,16 +5963,16 @@
     <row r="271" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>50</v>
@@ -5901,83 +5981,83 @@
         <v>13</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E274" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
@@ -5985,16 +6065,16 @@
     <row r="277" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>50</v>
@@ -6003,83 +6083,83 @@
         <v>13</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E279" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E280" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -6087,16 +6167,16 @@
     <row r="283" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>50</v>
@@ -6105,83 +6185,83 @@
         <v>13</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E285" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E286" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
@@ -6189,16 +6269,16 @@
     <row r="289" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="E290" s="7" t="s">
         <v>50</v>
@@ -6206,115 +6286,101 @@
       <c r="F290" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G290" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G290" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>296</v>
+        <v>169</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>297</v>
+      <c r="D292" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>296</v>
+        <v>172</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E293" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G293" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G294" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
     </row>
     <row r="295" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E296" s="7" t="s">
         <v>50</v>
@@ -6322,34 +6388,249 @@
       <c r="F296" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G296" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G296" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D297" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G297" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="298" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D297" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="301" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="304" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D307" s="6"/>
+    </row>
+    <row r="308" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sbml/galactose/Galactose_Annotations.xlsx
+++ b/sbml/galactose/Galactose_Annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="689" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="734" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="325">
   <si>
     <t>SBMLId</t>
   </si>
@@ -335,28 +335,31 @@
     <t>rhea</t>
   </si>
   <si>
-    <t>GALACTOKIN-RXN</t>
-  </si>
-  <si>
     <t>REACTOME:R-HSA-70355.1</t>
   </si>
   <si>
+    <t>isDescribedBy</t>
+  </si>
+  <si>
     <t>pubmed</t>
   </si>
   <si>
+    <t>Timson2003</t>
+  </si>
+  <si>
     <t>GALK_kcat</t>
   </si>
   <si>
     <t>sabiork.kineticrecord</t>
   </si>
   <si>
-    <t>isDescribedBy</t>
-  </si>
-  <si>
     <t>GALK_k_atp</t>
   </si>
   <si>
     <t>GALK_k_gal</t>
+  </si>
+  <si>
+    <t>Sangiuolo2004</t>
   </si>
   <si>
     <t>^\w+__IMP\w{0,1}$</t>
@@ -1127,7 +1130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1186,10 +1189,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1292,9 +1291,9 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2363,7 +2362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>97</v>
       </c>
@@ -2373,17 +2372,17 @@
       <c r="C58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
         <v>97</v>
       </c>
@@ -2393,14 +2392,14 @@
       <c r="C59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>107</v>
+      <c r="D59" s="8" t="n">
+        <v>230200</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,46 +2413,49 @@
         <v>10</v>
       </c>
       <c r="D60" s="8" t="n">
-        <v>230200</v>
+        <v>12694189</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>12694189</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="A62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v>14785</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>71</v>
@@ -2462,18 +2464,21 @@
         <v>10</v>
       </c>
       <c r="D63" s="8" t="n">
-        <v>14785</v>
+        <v>12694189</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>71</v>
@@ -2482,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="D64" s="8" t="n">
-        <v>12694189</v>
+        <v>14792</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,18 +2507,21 @@
         <v>10</v>
       </c>
       <c r="D65" s="8" t="n">
-        <v>14792</v>
+        <v>12694189</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>71</v>
@@ -2522,13 +2530,13 @@
         <v>10</v>
       </c>
       <c r="D66" s="8" t="n">
-        <v>12694189</v>
+        <v>14785</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,13 +2550,16 @@
         <v>10</v>
       </c>
       <c r="D67" s="8" t="n">
-        <v>14785</v>
+        <v>12694189</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,13 +2573,13 @@
         <v>10</v>
       </c>
       <c r="D68" s="8" t="n">
-        <v>12694189</v>
+        <v>45367</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,39 +2593,45 @@
         <v>10</v>
       </c>
       <c r="D69" s="8" t="n">
-        <v>45367</v>
+        <v>15024738</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="8" t="n">
-        <v>15024738</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>85</v>
@@ -2622,22 +2639,19 @@
       <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>98</v>
+      <c r="D72" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>85</v>
@@ -2646,62 +2660,62 @@
         <v>10</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>85</v>
@@ -2710,18 +2724,18 @@
         <v>10</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>85</v>
@@ -2729,19 +2743,19 @@
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>119</v>
+      <c r="D78" s="8" t="n">
+        <v>13992</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>85</v>
@@ -2749,19 +2763,19 @@
       <c r="C79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="8" t="n">
-        <v>13992</v>
+      <c r="D79" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>85</v>
@@ -2769,63 +2783,63 @@
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>120</v>
+      <c r="D80" s="8" t="n">
+        <v>230400</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <v>230400</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>85</v>
@@ -2834,18 +2848,18 @@
         <v>10</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>85</v>
@@ -2853,19 +2867,19 @@
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>123</v>
+      <c r="D85" s="8" t="n">
+        <v>22171</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>85</v>
@@ -2873,19 +2887,19 @@
       <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="8" t="n">
-        <v>22171</v>
+      <c r="D86" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>85</v>
@@ -2893,39 +2907,39 @@
       <c r="C87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>124</v>
+      <c r="D87" s="8" t="n">
+        <v>230350</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="8" t="n">
-        <v>230350</v>
+        <v>19823</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>71</v>
@@ -2934,18 +2948,18 @@
         <v>10</v>
       </c>
       <c r="D89" s="8" t="n">
-        <v>19823</v>
+        <v>46260</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>71</v>
@@ -2954,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="D90" s="8" t="n">
-        <v>46260</v>
+        <v>16222</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,62 +2988,62 @@
         <v>10</v>
       </c>
       <c r="D91" s="8" t="n">
-        <v>16222</v>
+        <v>46263</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="8" t="n">
-        <v>46263</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>99</v>
+        <v>128</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>85</v>
@@ -3037,19 +3051,19 @@
       <c r="C95" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>128</v>
+      <c r="D95" s="8" t="n">
+        <v>19892</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>85</v>
@@ -3057,19 +3071,19 @@
       <c r="C96" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="8" t="n">
-        <v>19892</v>
+      <c r="D96" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>85</v>
@@ -3078,62 +3092,62 @@
         <v>10</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>99</v>
+        <v>132</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>85</v>
@@ -3141,19 +3155,19 @@
       <c r="C101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>132</v>
+      <c r="D101" s="8" t="n">
+        <v>14212</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>85</v>
@@ -3161,83 +3175,83 @@
       <c r="C102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="8" t="n">
-        <v>14212</v>
+      <c r="D102" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="E103" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>99</v>
+        <v>135</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>85</v>
@@ -3246,18 +3260,18 @@
         <v>10</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>85</v>
@@ -3266,18 +3280,18 @@
         <v>10</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>85</v>
@@ -3286,38 +3300,38 @@
         <v>10</v>
       </c>
       <c r="D109" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="F109" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>139</v>
+      <c r="D110" s="8" t="n">
+        <v>22893</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>71</v>
@@ -3332,7 +3346,7 @@
         <v>50</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,62 +3360,62 @@
         <v>10</v>
       </c>
       <c r="D112" s="8" t="n">
-        <v>22893</v>
+        <v>15695</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="8" t="n">
-        <v>15695</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>99</v>
+        <v>143</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>85</v>
@@ -3409,19 +3423,19 @@
       <c r="C116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>143</v>
+      <c r="D116" s="8" t="n">
+        <v>23539</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>85</v>
@@ -3429,19 +3443,19 @@
       <c r="C117" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="8" t="n">
-        <v>23539</v>
+      <c r="D117" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>85</v>
@@ -3450,18 +3464,18 @@
         <v>10</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>85</v>
@@ -3469,63 +3483,63 @@
       <c r="C119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>145</v>
+      <c r="D119" s="8" t="n">
+        <v>612934</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="8" t="n">
-        <v>612934</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>99</v>
+        <v>147</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>85</v>
@@ -3533,19 +3547,19 @@
       <c r="C123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>147</v>
+      <c r="D123" s="8" t="n">
+        <v>24579</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>85</v>
@@ -3553,19 +3567,19 @@
       <c r="C124" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="8" t="n">
-        <v>24579</v>
+      <c r="D124" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>85</v>
@@ -3574,62 +3588,62 @@
         <v>10</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="127" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>99</v>
+        <v>151</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>85</v>
@@ -3637,19 +3651,19 @@
       <c r="C129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>151</v>
+      <c r="D129" s="8" t="n">
+        <v>25101</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>85</v>
@@ -3657,63 +3671,63 @@
       <c r="C130" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="8" t="n">
-        <v>25101</v>
+      <c r="D130" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F131" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="132" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>99</v>
+        <v>154</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>85</v>
@@ -3721,19 +3735,19 @@
       <c r="C134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>154</v>
+      <c r="D134" s="8" t="n">
+        <v>15844</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>85</v>
@@ -3741,19 +3755,19 @@
       <c r="C135" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="8" t="n">
-        <v>15844</v>
+      <c r="D135" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>85</v>
@@ -3762,62 +3776,62 @@
         <v>10</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>85</v>
@@ -3826,2730 +3840,2733 @@
         <v>10</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E144" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F144" s="17" t="s">
+      <c r="E143" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G143" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="18" t="s">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E147" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F147" s="17" t="s">
+      <c r="E146" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G146" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="148" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="18" t="s">
+    <row r="147" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E149" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F149" s="17" t="s">
+      <c r="E148" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G148" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D151" s="6"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B152" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="B153" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-    </row>
-    <row r="157" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>166</v>
+      <c r="D158" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-    </row>
-    <row r="163" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>166</v>
+      <c r="D164" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-    </row>
-    <row r="169" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>166</v>
+      <c r="D170" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-    </row>
-    <row r="175" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>166</v>
+      <c r="D176" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D177" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="B178" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D179" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-    </row>
-    <row r="181" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>166</v>
+      <c r="D182" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-    </row>
-    <row r="187" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="9" t="s">
-        <v>166</v>
+      <c r="D188" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="D191" s="19" t="n">
+        <v>-2</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D192" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-    </row>
-    <row r="193" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D194" s="9" t="s">
-        <v>166</v>
+      <c r="D194" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>216</v>
+        <v>177</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-    </row>
-    <row r="199" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D200" s="9" t="s">
-        <v>166</v>
+      <c r="D200" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G202" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>222</v>
+        <v>177</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-    </row>
-    <row r="205" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>166</v>
+      <c r="D206" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G208" s="9" t="s">
-        <v>228</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>229</v>
+        <v>177</v>
+      </c>
+      <c r="D209" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D210" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-    </row>
-    <row r="211" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D212" s="9" t="s">
-        <v>166</v>
+      <c r="D212" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>235</v>
+        <v>177</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-    </row>
-    <row r="217" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D218" s="9" t="s">
-        <v>166</v>
+      <c r="D218" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G220" s="9" t="s">
-        <v>240</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="D221" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D222" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-    </row>
-    <row r="223" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>166</v>
+      <c r="D224" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>247</v>
+        <v>177</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-    </row>
-    <row r="229" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D230" s="9" t="s">
-        <v>166</v>
+      <c r="D230" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E232" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>252</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>253</v>
+        <v>177</v>
+      </c>
+      <c r="D233" s="19" t="n">
+        <v>-3</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D234" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-    </row>
-    <row r="235" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>166</v>
+      <c r="D236" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E238" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>258</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E239" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="D239" s="19" t="n">
+        <v>-3</v>
+      </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D240" s="20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F240" s="7"/>
-    </row>
-    <row r="241" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>166</v>
+      <c r="D242" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E244" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G244" s="9" t="s">
-        <v>264</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>265</v>
+        <v>177</v>
+      </c>
+      <c r="D245" s="19" t="n">
+        <v>-4</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D246" s="20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E246" s="7"/>
-      <c r="F246" s="7"/>
-    </row>
-    <row r="247" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D249" s="9" t="s">
-        <v>267</v>
+        <v>177</v>
+      </c>
+      <c r="D249" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D250" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-    </row>
-    <row r="251" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>269</v>
+        <v>177</v>
+      </c>
+      <c r="D253" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D254" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" s="7"/>
-      <c r="F254" s="7"/>
-    </row>
-    <row r="255" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B256" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E256" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>269</v>
+        <v>177</v>
+      </c>
+      <c r="D257" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D258" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-    </row>
-    <row r="259" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D260" s="9" t="s">
-        <v>166</v>
+      <c r="D260" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F262" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D263" s="9" t="s">
-        <v>276</v>
+        <v>177</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E264" s="7"/>
-      <c r="F264" s="7"/>
-    </row>
-    <row r="265" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D266" s="9" t="s">
-        <v>166</v>
+      <c r="D266" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F268" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G268" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D269" s="9" t="s">
-        <v>281</v>
+        <v>177</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-    </row>
-    <row r="271" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D272" s="9" t="s">
-        <v>166</v>
+      <c r="D272" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E274" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G274" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D275" s="9" t="s">
-        <v>287</v>
+        <v>177</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-    </row>
-    <row r="277" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D278" s="9" t="s">
-        <v>166</v>
+      <c r="D278" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E279" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G280" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>293</v>
+        <v>177</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E282" s="7"/>
-      <c r="F282" s="7"/>
-    </row>
-    <row r="283" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D284" s="9" t="s">
-        <v>166</v>
+      <c r="D284" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E285" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E286" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F286" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G286" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>298</v>
+        <v>177</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
-    </row>
-    <row r="289" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D290" s="9" t="s">
-        <v>166</v>
+      <c r="D290" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="E290" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E292" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G292" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D293" s="9" t="s">
-        <v>304</v>
+        <v>177</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E294" s="7"/>
-      <c r="F294" s="7"/>
-    </row>
-    <row r="295" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D296" s="9" t="s">
+      <c r="D296" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E296" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F296" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G296" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="B297" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D297" s="8" t="s">
-        <v>308</v>
+      <c r="D297" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="E297" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>309</v>
+        <v>39</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E299" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G299" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D300" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E300" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F300" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="301" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E302" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F302" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="303" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D306" s="6"/>
+    </row>
+    <row r="307" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F307" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G302" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D303" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G303" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="304" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D307" s="6"/>
+      <c r="G307" s="13" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>50</v>
@@ -6558,21 +6575,21 @@
         <v>13</v>
       </c>
       <c r="G308" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E309" s="7" t="s">
         <v>50</v>
@@ -6581,21 +6598,21 @@
         <v>13</v>
       </c>
       <c r="G309" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E310" s="7" t="s">
         <v>50</v>
@@ -6604,32 +6621,10 @@
         <v>13</v>
       </c>
       <c r="G310" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D311" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E311" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F311" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G311" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
